--- a/metadata/monthly-dry-outlook-metadata.xlsx
+++ b/metadata/monthly-dry-outlook-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE60A0-AAC6-A040-A0BD-2B03D6008611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F6C55A-FD91-7F48-B6A8-0E891968699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="500" windowWidth="27260" windowHeight="27020" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69120" yWindow="1120" windowWidth="27260" windowHeight="27020" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -85,30 +85,18 @@
     <t>month</t>
   </si>
   <si>
-    <t>acre_feet</t>
-  </si>
-  <si>
     <t>org_id</t>
   </si>
   <si>
     <t>DWR assigned ID number associated with the urban retail water supplier</t>
   </si>
   <si>
-    <t>ID number associated with water system in the supplier service area</t>
-  </si>
-  <si>
     <t>is_annual</t>
   </si>
   <si>
     <t>TRUE if represents an annual value. FALSE for monthly values. Annual values are included in this table and can be quickly identified by filtering the dataset using this field.</t>
   </si>
   <si>
-    <t>The month associated with the shortage action. Annual is included as a month level.</t>
-  </si>
-  <si>
-    <t>shortage_action_type</t>
-  </si>
-  <si>
     <t>nominal</t>
   </si>
   <si>
@@ -121,19 +109,62 @@
     <t>YYYY</t>
   </si>
   <si>
-    <t>The shortage action type. If no action is implemented then "no action". Levels = c("supply augmentation", "demand reduction", "no action")</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>Calendar year associated with the month. AWSDA reports cover July through June. For instance in the 2022 reporting year, this would cover July 2022 through June 2023. Annual values are assigned the year corresponding to the start month; in this case 2022.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The volume of water (acre feet) calculated by subtracting the anticipated unconstrained demand from the anticipated unconstrained supply. When the "shortage_action_type" is "no action" this represents the water surplus or shortage when no action is applied. </t>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>Name of water supplier # TODO is there a more detailed description of this</t>
+  </si>
+  <si>
+    <t>ID number associated with water system in the supplier service area #TODO decide if we want to include this</t>
+  </si>
+  <si>
+    <t>Calendar year associated with the month. AWSDA reports cover July through June. For instance in the 2022 reporting year, this would cover July 2022 through June 2023. Annual values are assigned the year corresponding to the start month; in this case 2022. Levels = c(2022, 2023)</t>
+  </si>
+  <si>
+    <t>The month associated with the shortage action. Annual is included as a month level. Levels = c("jul", "aug", "sep", "oct", "nov", "dec", "jan", "feb", "mar", 
+"apr", "may", "jun", "annual")</t>
+  </si>
+  <si>
+    <t>is_wscp_action</t>
+  </si>
+  <si>
+    <t>TRUE represents shortage (or surplus) values associated with implementing supply or demand actions (Water Shortage Contingency Plan actions). FALSE represents shortage (or surplus) values associated with no WSCP actions.</t>
+  </si>
+  <si>
+    <t>shortage_surplus_acre_feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The volume of water (acre feet) calculated by subtracting the anticipated unconstrained demand from the anticipated unconstrained supply. This calculated field is part of the AWSDA reporting. </t>
+  </si>
+  <si>
+    <t>shortage_surplus_percent</t>
+  </si>
+  <si>
+    <t>The percentage of water shortage calculated by subtracting the anticipated unconstrained demand from the anticipated unconstrained supply divided by the unconstrained deman and multiplied by 100. This monthly number indicates the percent water supplies are short (or in surplus if positive). This value is used to determine the State Standard Shortage Level.</t>
+  </si>
+  <si>
+    <t>state_standard_shortage_level</t>
+  </si>
+  <si>
+    <t># TODO need a good definition for this</t>
+  </si>
+  <si>
+    <t>benefit_demand_reduction_acre_feet</t>
+  </si>
+  <si>
+    <t>benefit_supply_augmentation_acre_feet</t>
+  </si>
+  <si>
+    <t>Additional water quanity (acre feet) resulting from a supply augmentation action. This will be NA when is_wscp_action is FALSE</t>
+  </si>
+  <si>
+    <t>Additional water quanity (acre feet) resulting from a demand reduction action. This will be NA when is_wscp_action is FALSE</t>
   </si>
 </sst>
 </file>
@@ -182,20 +213,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG11"/>
+  <dimension ref="A1:AMG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,15 +616,15 @@
     <col min="1" max="1" width="19.6640625" style="1"/>
     <col min="2" max="2" width="65" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
     <col min="14" max="1021" width="19.6640625" style="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
@@ -612,171 +639,244 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M4" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="3">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="1">
         <v>-812606</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M9" s="1">
         <v>3419874</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G11" s="6"/>
+    <row r="10" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-99.889520000000005</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1022" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C1024" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1022" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E10 E14:E1024" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1022" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1024" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/metadata/monthly-dry-outlook-metadata.xlsx
+++ b/metadata/monthly-dry-outlook-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F6C55A-FD91-7F48-B6A8-0E891968699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765EAED-5649-9549-A2B4-CD8870DA499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69120" yWindow="1120" windowWidth="27260" windowHeight="27020" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="36140" windowHeight="27660" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Additional water quanity (acre feet) resulting from a demand reduction action. This will be NA when is_wscp_action is FALSE</t>
+  </si>
+  <si>
+    <t>forecast_year</t>
   </si>
 </sst>
 </file>
@@ -607,13 +610,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
@@ -717,7 +720,7 @@
     </row>
     <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>

--- a/metadata/monthly-dry-outlook-metadata.xlsx
+++ b/metadata/monthly-dry-outlook-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765EAED-5649-9549-A2B4-CD8870DA499E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F151F89-6343-404F-82A5-F7707DB26908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="36140" windowHeight="27660" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61260" yWindow="500" windowWidth="36140" windowHeight="27340" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -119,12 +119,6 @@
   </si>
   <si>
     <t>Name of water supplier # TODO is there a more detailed description of this</t>
-  </si>
-  <si>
-    <t>ID number associated with water system in the supplier service area #TODO decide if we want to include this</t>
-  </si>
-  <si>
-    <t>Calendar year associated with the month. AWSDA reports cover July through June. For instance in the 2022 reporting year, this would cover July 2022 through June 2023. Annual values are assigned the year corresponding to the start month; in this case 2022. Levels = c(2022, 2023)</t>
   </si>
   <si>
     <t>The month associated with the shortage action. Annual is included as a month level. Levels = c("jul", "aug", "sep", "oct", "nov", "dec", "jan", "feb", "mar", 
@@ -168,6 +162,18 @@
   </si>
   <si>
     <t>forecast_year</t>
+  </si>
+  <si>
+    <t>Calendar year associated with the month. AWSDA reports cover July through June. For instance in the 2024 reporting year, this would cover July 2024 through June 2025. Annual values are assigned the year corresponding to the start month; in this case 2024. Levels = c(2024,2025)</t>
+  </si>
+  <si>
+    <t>ID number associated with water system in the supplier service area #TODO decide if we want to include this, pull from UWMP</t>
+  </si>
+  <si>
+    <t>supplier_type</t>
+  </si>
+  <si>
+    <t>Type of supplier. Levels = c("combined", "retail", "wholesale")</t>
   </si>
 </sst>
 </file>
@@ -608,15 +614,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG13"/>
+  <dimension ref="A1:AMG14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
@@ -695,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -718,52 +724,46 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2023</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>23</v>
@@ -772,12 +772,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -786,32 +786,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-812606</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3419874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -820,18 +814,18 @@
         <v>28</v>
       </c>
       <c r="L10" s="1">
-        <v>-99.889520000000005</v>
+        <v>-812606</v>
       </c>
       <c r="M10" s="1">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>3419874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
@@ -839,13 +833,19 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="1">
+        <v>-99.889520000000005</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -854,12 +854,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -867,19 +867,33 @@
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C10 C14:C1024" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C11 C15:C1025" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E10 E14:E1024" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E11 E15:E1025" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1024" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1025" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/metadata/monthly-dry-outlook-metadata.xlsx
+++ b/metadata/monthly-dry-outlook-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/urban-water-drought-data/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F151F89-6343-404F-82A5-F7707DB26908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7F151F89-6343-404F-82A5-F7707DB26908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B2C54F-BA2A-4B01-9D98-DB0025EF93DB}"/>
   <bookViews>
-    <workbookView xWindow="61260" yWindow="500" windowWidth="36140" windowHeight="27340" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -25,8 +25,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CF1D358B-0641-4AF4-A3BF-D7CA25150A23}</author>
+    <author>tc={2C2580A2-7D91-417E-B78C-F60E39AB3B52}</author>
+  </authors>
+  <commentList>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{CF1D358B-0641-4AF4-A3BF-D7CA25150A23}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Some rows are N/As, should we change those to 0s?</t>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="1" shapeId="0" xr:uid="{2C2580A2-7D91-417E-B78C-F60E39AB3B52}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this the possible range/maximum or actual range?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -146,9 +173,6 @@
     <t>state_standard_shortage_level</t>
   </si>
   <si>
-    <t># TODO need a good definition for this</t>
-  </si>
-  <si>
     <t>benefit_demand_reduction_acre_feet</t>
   </si>
   <si>
@@ -174,13 +198,46 @@
   </si>
   <si>
     <t>Type of supplier. Levels = c("combined", "retail", "wholesale")</t>
+  </si>
+  <si>
+    <t>acre-feet</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ordinal</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>Water shortage levels are predefined stages used by water management authorities to respond to varying degrees of water scarcity. Each level represents a specific severity of shortage and dictates corresponding conservation measures, restrictions, and actions to manage and reduce water use effectively. # TODO need a good definition for this</t>
+  </si>
+  <si>
+    <t>reporting_interval</t>
+  </si>
+  <si>
+    <t>VOLUME_UNIT</t>
+  </si>
+  <si>
+    <t>start_month</t>
+  </si>
+  <si>
+    <t>end_month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -193,6 +250,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -315,6 +378,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kanavas, Zoe@DWR (she/her)" id="{CE59E145-6D5F-429E-A424-3A855B35D338}" userId="S::Zoe.Kanavas@water.ca.gov::a9497dc4-3ae7-4325-9eed-74504f04b3ea" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,33 +681,46 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C12" dT="2024-07-31T17:00:51.43" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{CF1D358B-0641-4AF4-A3BF-D7CA25150A23}">
+    <text>Some rows are N/As, should we change those to 0s?</text>
+  </threadedComment>
+  <threadedComment ref="M12" dT="2024-07-31T16:56:07.54" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{2C2580A2-7D91-417E-B78C-F60E39AB3B52}">
+    <text>Is this the possible range/maximum or actual range?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="65" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="1"/>
-    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="1021" width="19.625" style="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -687,21 +769,34 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -709,8 +804,17 @@
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -723,21 +827,45 @@
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -745,6 +873,9 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
@@ -758,7 +889,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -766,13 +897,19 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -785,8 +922,17 @@
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -799,8 +945,17 @@
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -813,6 +968,21 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L10" s="1">
         <v>-812606</v>
       </c>
@@ -820,7 +990,7 @@
         <v>3419874</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -833,6 +1003,15 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" s="1">
         <v>-99.889520000000005</v>
       </c>
@@ -840,12 +1019,12 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -853,13 +1032,31 @@
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -867,13 +1064,28 @@
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="G13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -881,7 +1093,41 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -903,6 +1149,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -914,14 +1161,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -932,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/metadata/monthly-dry-outlook-metadata.xlsx
+++ b/metadata/monthly-dry-outlook-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cawater-my.sharepoint.com/personal/zoe_kanavas_water_ca_gov/Documents/Documents/Water Data Consortium Projects/urban-water-drought-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7F151F89-6343-404F-82A5-F7707DB26908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B2C54F-BA2A-4B01-9D98-DB0025EF93DB}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{7F151F89-6343-404F-82A5-F7707DB26908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425F4508-8E2B-48CB-8C75-49BF9EB5518F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-255" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,10 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Some rows are N/As, should we change those to 0s?</t>
+    Some rows are N/As, should we change those to 0s?
+Reply:
+    Two situations with Nas: could be that they are not currently experiencing a shortage or that they are reporting a shortage but did not provide a number.
+What are the 0s??</t>
       </text>
     </comment>
     <comment ref="M12" authorId="1" shapeId="0" xr:uid="{2C2580A2-7D91-417E-B78C-F60E39AB3B52}">
@@ -45,7 +48,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Is this the possible range/maximum or actual range?</t>
+    Is this the possible range/maximum or actual range?
+Reply:
+    Observed range; the possible range will be reflected in the attribute definition</t>
       </text>
     </comment>
   </commentList>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -231,13 +236,22 @@
   </si>
   <si>
     <t>end_month</t>
+  </si>
+  <si>
+    <t>UWMP</t>
+  </si>
+  <si>
+    <t>eAR</t>
+  </si>
+  <si>
+    <t>AWSDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -250,12 +264,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -686,8 +694,15 @@
   <threadedComment ref="C12" dT="2024-07-31T17:00:51.43" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{CF1D358B-0641-4AF4-A3BF-D7CA25150A23}">
     <text>Some rows are N/As, should we change those to 0s?</text>
   </threadedComment>
+  <threadedComment ref="C12" dT="2024-07-31T18:26:11.08" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{F4161337-55A2-4531-BB3E-51DCD8EC8D54}" parentId="{CF1D358B-0641-4AF4-A3BF-D7CA25150A23}">
+    <text>Two situations with Nas: could be that they are not currently experiencing a shortage or that they are reporting a shortage but did not provide a number.
+What are the 0s??</text>
+  </threadedComment>
   <threadedComment ref="M12" dT="2024-07-31T16:56:07.54" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{2C2580A2-7D91-417E-B78C-F60E39AB3B52}">
     <text>Is this the possible range/maximum or actual range?</text>
+  </threadedComment>
+  <threadedComment ref="M12" dT="2024-07-31T18:30:31.12" personId="{CE59E145-6D5F-429E-A424-3A855B35D338}" id="{C001AA86-822D-44BD-8CB2-C230ABBBEB90}" parentId="{2C2580A2-7D91-417E-B78C-F60E39AB3B52}">
+    <text>Observed range; the possible range will be reflected in the attribute definition</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -699,7 +714,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -771,6 +786,9 @@
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
@@ -801,6 +819,9 @@
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
@@ -824,6 +845,9 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
@@ -847,6 +871,9 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
@@ -870,6 +897,9 @@
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
@@ -899,6 +929,9 @@
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
@@ -965,6 +998,9 @@
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1000,6 +1036,9 @@
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1066,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
@@ -1061,6 +1103,9 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1089,6 +1134,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
